--- a/public/assets/template/Template_CSV_Kalender_Libur.xlsx
+++ b/public/assets/template/Template_CSV_Kalender_Libur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/simci4/public/assets/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B19457C7-B319-3341-B985-AE3A6B590ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717DC929-9FCF-F34A-83A1-89E1B969A194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{6123EC35-ACF7-6446-AE43-60DA6737235B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19040" xr2:uid="{6123EC35-ACF7-6446-AE43-60DA6737235B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Tanggal (Format: yyyy-mm-dd)</t>
+    <t>Keterangan</t>
   </si>
   <si>
-    <t>Keterangan</t>
+    <t>Tanggal (Format: dd/mm/yyyy)</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -426,10 +426,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
